--- a/data/trans_camb/P20_3_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P20_3_R-Urba-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,27</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>0,07</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,59; 6,54</t>
+          <t>-14,23; 13,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 6,86</t>
+          <t>-7,33; 10,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 4,09</t>
+          <t>-7,75; 8,61</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-11,67%</t>
+          <t>-5,39%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,13%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-4,52%</t>
+          <t>0,26%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-43,59; 44,47</t>
+          <t>-49,09; 79,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-19,78; 27,56</t>
+          <t>-22,59; 42,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-23,72; 18,59</t>
+          <t>-26,57; 37,92</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>-0,24</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 12,69</t>
+          <t>-9,24; 10,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 8,27</t>
+          <t>-11,65; 8,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 6,9</t>
+          <t>-7,19; 7,5</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,8%</t>
+          <t>-2,78%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>-0,91%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-29,07; 88,43</t>
+          <t>-38,97; 79,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-25,3; 29,32</t>
+          <t>-30,23; 32,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-21,05; 29,01</t>
+          <t>-24,07; 34,02</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-8,67</t>
+          <t>-11,96</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,18</t>
+          <t>-4,77</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-23,47; 8,42</t>
+          <t>-32,82; 6,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,26; 19,25</t>
+          <t>-17,11; 22,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 9,07</t>
+          <t>-19,04; 9,79</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-35,16%</t>
+          <t>-58,03%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10,24%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-12,39%</t>
+          <t>-21,36%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-71,57; 62,96</t>
+          <t>-100,0; 106,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-37,06; 114,75</t>
+          <t>-53,13; 165,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-45,93; 49,19</t>
+          <t>-62,54; 75,65</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>-0,58</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 4,97</t>
+          <t>-9,74; 7,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 5,43</t>
+          <t>-6,33; 6,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 2,91</t>
+          <t>-5,51; 5,11</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-8,69%</t>
+          <t>-8,81%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-3,12%</t>
+          <t>-2,26%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,24 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-31,95; 28,15</t>
+          <t>-38,55; 44,22</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-15,44; 20,46</t>
+          <t>-19,37; 25,87</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-18,1; 12,19</t>
+          <t>-19,45; 23,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P20_3_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P20_3_R-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,29</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,25</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-2.696800398903276</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>3.169557759323061</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.4682153678752854</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-14,23; 13,48</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-7,33; 10,36</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-7,75; 8,61</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-16.32733189419663</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-5.491418667473867</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-7.616899727244444</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-5,39%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>4,52%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,26%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>9.539119648765739</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>12.33947252010431</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>8.26576570968448</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-49,09; 79,31</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-22,59; 42,76</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-26,57; 37,92</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.1126281857395459</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.1148615515449768</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.01805826651836222</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,28</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,9</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,24</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.533717541156691</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.1752441481894181</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.2533987298671136</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-9,24; 10,21</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-11,65; 8,83</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-7,19; 7,5</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.5271809492276212</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.546059260021082</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.3740636202621831</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,5%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-2,78%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,91%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>1.44359347746435</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.5812011165536701</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.2155892322984576</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-38,97; 79,49</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-30,23; 32,74</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-24,07; 34,02</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-8.784772724632019</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-11.1520881464139</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-6.839960554209155</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-11,96</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,42</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-4,77</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>12.97463912935821</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>9.370831592582556</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>8.375250010187408</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-32,82; 6,51</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-17,11; 22,52</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-19,04; 9,79</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.07835582023088072</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.01788304727470659</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.008307991301975293</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-58,03%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>10,02%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-21,36%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.3856278202859231</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.2960468892355385</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.2381759152709533</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 106,16</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-53,13; 165,56</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-62,54; 75,65</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.9365532657340095</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.3408924242685745</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.3930376408884554</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,93 +775,209 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-1,88</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,51</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-0,58</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-10.85045730943301</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>2.095419246720956</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-3.890517592924336</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-9,74; 7,42</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-6,33; 6,68</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-5,51; 5,11</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-31.53632417076086</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-17.27993792072943</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-18.65309557170227</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-8,81%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>1,74%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-2,26%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>9.819790622512281</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>22.13753133342339</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>11.52781775156218</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-38,55; 44,22</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-19,37; 25,87</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-19,45; 23,0</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.5264299218650202</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.08682773024466416</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.1740806101269406</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.5204472250082837</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.6088130313451323</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>1.229375258865375</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>1.721800929437894</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.9188823305281567</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-1.850165981861082</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>1.525601479159711</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-0.07383674587866373</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-9.76192744151702</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-5.797142456072256</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-5.090894250947999</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>6.680421063242088</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>7.676355142776085</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>5.514659536396731</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.08668864338801426</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.05216873197039717</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.002887905101925622</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.3879965417707508</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.1769800725667523</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.1753966878196445</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.3824511312448275</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.3007574099883566</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.2451860370953001</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -936,11 +985,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
